--- a/ImageDecode.xlsx
+++ b/ImageDecode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Сергей\Desktop\SnakeGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Сергей\Desktop\PacManGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E04B21F0-49E7-464F-8838-243419A92A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9E9B59-D25C-49CB-A4A5-454DCA3D10B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12348" yWindow="516" windowWidth="12684" windowHeight="7908" xr2:uid="{7BAA42CF-6135-4006-A66D-2EE56F1F1D08}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7BAA42CF-6135-4006-A66D-2EE56F1F1D08}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>7C</t>
   </si>
@@ -40,6 +40,27 @@
   </si>
   <si>
     <t>A5</t>
+  </si>
+  <si>
+    <t>3С</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>7E</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>EC</t>
   </si>
 </sst>
 </file>
@@ -152,21 +173,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -481,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90415BBB-73F1-47B0-8DED-CD3C8BC03D18}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,65 +519,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" s="1"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="1"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="1"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="1"/>
+      <c r="B2" s="4"/>
+      <c r="D2" s="7"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="5"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="1"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="7"/>
+      <c r="A5" s="5"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="1"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="2"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -587,84 +589,84 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="11"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="11"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="11"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="9"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="11"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -693,86 +695,86 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="12"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="9"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="11"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="9"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="11"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="11"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="9"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>42</v>
       </c>
@@ -784,6 +786,224 @@
       </c>
       <c r="E33">
         <v>81</v>
+      </c>
+      <c r="F33">
+        <v>81</v>
+      </c>
+      <c r="G33">
+        <v>42</v>
+      </c>
+      <c r="H33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="10"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="10"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ImageDecode.xlsx
+++ b/ImageDecode.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Сергей\Desktop\PacManGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9E9B59-D25C-49CB-A4A5-454DCA3D10B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF06C16-B29A-4DFA-AEBC-CBF65843B7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7BAA42CF-6135-4006-A66D-2EE56F1F1D08}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>7C</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>EC</t>
+  </si>
+  <si>
+    <t>FC</t>
   </si>
 </sst>
 </file>
@@ -502,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90415BBB-73F1-47B0-8DED-CD3C8BC03D18}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -988,7 +991,7 @@
         <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D55" t="s">
         <v>10</v>
